--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="addOrgInfo" sheetId="6" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="8" r:id="rId2"/>
+    <sheet name="orgManage" sheetId="6" r:id="rId1"/>
+    <sheet name="roleManage" sheetId="9" r:id="rId2"/>
+    <sheet name="positionManage" sheetId="10" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
   <si>
     <t>NO.</t>
   </si>
@@ -41,19 +42,107 @@
     <t>remark</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>level1</t>
-  </si>
-  <si>
-    <t>添加一级机构不存在</t>
-  </si>
-  <si>
-    <t>添加一级机构</t>
-  </si>
-  <si>
-    <t>http://hami-test.tobowork.com:8026/stg/v1/system/org/addOrg</t>
+    <t>org_001</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>查询全部机构--有机构数据</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/org/pageOrg</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>"total":16</t>
+  </si>
+  <si>
+    <t>表：hm_org
+1、"parentOrgId"为父机构ID
+2、type，1为机构，2为部门
+3、唯一验证字段orgName</t>
+  </si>
+  <si>
+    <t>org_002</t>
+  </si>
+  <si>
+    <t>添加机构orgCode为空</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/org/addOrg</t>
+  </si>
+  <si>
+    <t>{
+"orgCode": "",
+"orgName": "北京银行",
+"type":2,
+"status":2,
+"description":"添加机构orgCode为空"
+}</t>
+  </si>
+  <si>
+    <t>机构号不能为空</t>
+  </si>
+  <si>
+    <t>org_003</t>
+  </si>
+  <si>
+    <t>添加机构orgName为空</t>
+  </si>
+  <si>
+    <t>{
+"orgCode": "TJB",
+"orgName": "",
+"type":2,
+"status":2,
+"description":"添加机构orgName为空"
+}</t>
+  </si>
+  <si>
+    <t>机构名为空</t>
+  </si>
+  <si>
+    <t>org_004</t>
+  </si>
+  <si>
+    <t>添加机构type为空</t>
+  </si>
+  <si>
+    <t>{
+"orgCode": "HBB",
+"orgName": "河北银行",
+"status":2,
+"description":"添加机构type为空"
+}</t>
+  </si>
+  <si>
+    <t>类型不能为空</t>
+  </si>
+  <si>
+    <t>org_005</t>
+  </si>
+  <si>
+    <t>添加一个一级机构，status为空，description为空</t>
+  </si>
+  <si>
+    <t>{
+"orgCode": "SXB",
+"orgName": "山西银行",
+"type":2,
+"description":""
+}</t>
+  </si>
+  <si>
+    <t>"code":"000000"</t>
+  </si>
+  <si>
+    <t>org_006</t>
+  </si>
+  <si>
+    <t>添加一个已存在的一级机构</t>
   </si>
   <si>
     <t>{
@@ -63,105 +152,618 @@
 }</t>
   </si>
   <si>
-    <t>成功</t>
-  </si>
-  <si>
-    <t>表：hm_org
-1、"parentOrgId"为父机构ID
-2、type，1为机构，2为部门</t>
-  </si>
-  <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>1、添加二级机构不存在
-2、父机构存在</t>
-  </si>
-  <si>
-    <t>添加二级机构</t>
-  </si>
-  <si>
-    <t>{
-"orgCode": "GSB001",
-"orgName": "城关分行",
+    <t>机构已存在</t>
+  </si>
+  <si>
+    <t>org_007</t>
+  </si>
+  <si>
+    <t>添加一个orgName与一级机构的orgName相同的二级部门（验证唯一键是否与职级、type有关）</t>
+  </si>
+  <si>
+    <t>{
+"orgCode": "GSB",
+"orgName": "甘肃银行",
 "parentOrgId":33,
-"type": 1
-}</t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
-    <t>/</t>
-  </si>
-  <si>
-    <t>添加已存在的机构（orgName）</t>
-  </si>
-  <si>
-    <t>{
-"orgCode": "GSB002",
-"orgName": "城关分行",
+"type": 2
+}</t>
+  </si>
+  <si>
+    <t>org_008</t>
+  </si>
+  <si>
+    <t>父机构存在</t>
+  </si>
+  <si>
+    <t>添加一个父机构存在的二级机构</t>
+  </si>
+  <si>
+    <t>{
+"orgCode": "SXXB001",
+"orgName": "延安分行",
 "parentOrgId":33,
-"type": 1
-}</t>
-  </si>
-  <si>
-    <t>机构已存在</t>
-  </si>
-  <si>
-    <t>test004</t>
+"type": 1,
+"description":"添加一个父机构存在的二级机构"
+}</t>
+  </si>
+  <si>
+    <t>org_009</t>
   </si>
   <si>
     <t>level2</t>
   </si>
   <si>
-    <t>添加父机构不存在的二级机构</t>
-  </si>
-  <si>
-    <t>{
-"orgCode": "HMA002",
-"orgName": "哈尔滨分行",
+    <t>父机构不存在</t>
+  </si>
+  <si>
+    <t>添加一个父机构不存在的二级机构</t>
+  </si>
+  <si>
+    <t>{
+"orgCode": "SXXB002",
+"orgName": "榆林分行",
 "parentOrgId":25,
 "type": 1
 }</t>
   </si>
   <si>
-    <t>父机构不存在</t>
-  </si>
-  <si>
-    <t>查询全部机构--有机构数据</t>
-  </si>
-  <si>
-    <t>http://hami-test.tobowork.com:8026/stg/v1/system/org/pageOrg</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>"total":10</t>
-  </si>
-  <si>
-    <t>查询全部机构--没有机构数据</t>
-  </si>
-  <si>
-    <t>"total": 0</t>
-  </si>
-  <si>
-    <t>编辑不存在的机构</t>
-  </si>
-  <si>
-    <t>http://hami-test.tobowork.com:8026/stg/v1/system/org/updateOrg</t>
-  </si>
-  <si>
-    <t>{
-"id": 38,
-"orgCode": "HM0A005",
-"orgName": "喀什分行",
-"status":1
-}</t>
-  </si>
-  <si>
-    <t>将orgName修改为已存在的机构</t>
+    <t>org_010</t>
+  </si>
+  <si>
+    <t>编辑后，将orgCode置空</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/org/updateOrg</t>
+  </si>
+  <si>
+    <t>{
+"id": 10,
+"orgCode": "",
+"orgName": "内蒙分行",
+"parentOrgId":38,
+"type":2,
+"status":2,
+"description":"编辑后，将orgCode置空"
+}</t>
+  </si>
+  <si>
+    <t>机构编码不能为空</t>
+  </si>
+  <si>
+    <t>org_011</t>
+  </si>
+  <si>
+    <t>编辑后，将orgName置空</t>
+  </si>
+  <si>
+    <t>{
+"id": 11,
+"orgCode": "GSB002",
+"orgName": "",
+"parentOrgId":38,
+"type":2,
+"status":2,
+"description":"编辑后，将orgName置空"
+}</t>
+  </si>
+  <si>
+    <t>org_012</t>
+  </si>
+  <si>
+    <t>删除机构</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/org/deleteOrg</t>
+  </si>
+  <si>
+    <t>{
+"orgId":13
+}</t>
+  </si>
+  <si>
+    <t>逻辑删除</t>
+  </si>
+  <si>
+    <t>role_001</t>
+  </si>
+  <si>
+    <t>level1</t>
+  </si>
+  <si>
+    <t>查询全部角色
+（有角色数据）</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/orgRole/pageOrgRole</t>
+  </si>
+  <si>
+    <t>{
+"orgRoleName": ""
+}</t>
+  </si>
+  <si>
+    <t>"total":13</t>
+  </si>
+  <si>
+    <t>role_002</t>
+  </si>
+  <si>
+    <t>新增角色名称为空</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/orgRole/addOrgRole</t>
+  </si>
+  <si>
+    <t>{
+"roleName":"",
+"menuIdList":[1,5,6],
+"remark":"新增角色名称为空"
+}</t>
+  </si>
+  <si>
+    <t>角色名称不能为空</t>
+  </si>
+  <si>
+    <t>role_003</t>
+  </si>
+  <si>
+    <t>新增角色菜单为空</t>
+  </si>
+  <si>
+    <t>{
+"roleName":"风控1",
+"remark":"新增角色菜单为空"
+}</t>
+  </si>
+  <si>
+    <t>角色的菜单不能为空</t>
+  </si>
+  <si>
+    <t>role_004</t>
+  </si>
+  <si>
+    <t>新增不存在的角色</t>
+  </si>
+  <si>
+    <t>{
+"roleName":"风控2",
+"menuIdList":[1,5,6],
+"remark":"新增不存在的角色"
+}</t>
+  </si>
+  <si>
+    <t>role_005</t>
+  </si>
+  <si>
+    <t>新增角色备注为空</t>
+  </si>
+  <si>
+    <t>{
+"roleName":"风控3",
+"menuIdList":[1,5,6],
+"remark":""
+}</t>
+  </si>
+  <si>
+    <t>role_006</t>
+  </si>
+  <si>
+    <t>新增已存在的角色</t>
+  </si>
+  <si>
+    <t>{
+"roleName":"T_业务经理",
+"menuIdList":[1,5,6],
+"remark":"新增已存在的角色"
+}</t>
+  </si>
+  <si>
+    <t>角色名称重复</t>
+  </si>
+  <si>
+    <t>role_007</t>
+  </si>
+  <si>
+    <t>编辑后角色名称为空</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/orgRole/updateOrgRole</t>
+  </si>
+  <si>
+    <t>{
+"id":"10",
+"roleName":"",
+"menuIdList":[1,5,6],
+"remark":"编辑后角色名称为空"
+}</t>
+  </si>
+  <si>
+    <t>role_008</t>
+  </si>
+  <si>
+    <t>编辑后角色名称重复</t>
+  </si>
+  <si>
+    <t>{
+"id":"11",
+"roleName":"T_总经理",
+"menuIdList":[1,5,6],
+"remark":"编辑后角色名称重复"
+}</t>
+  </si>
+  <si>
+    <t>role_009</t>
+  </si>
+  <si>
+    <t>删除角色</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/orgRole/delOrgRole</t>
+  </si>
+  <si>
+    <t>{
+"id":12
+}</t>
+  </si>
+  <si>
+    <t>查询全部岗位
+（有岗位数据）</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/user/findAllPosition</t>
+  </si>
+  <si>
+    <t>{
+"dicId": 4
+}</t>
+  </si>
+  <si>
+    <t>新增岗位dicValue为空</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/dictionaryDetail/dicDetailAdd</t>
+  </si>
+  <si>
+    <t>{
+"dicId": 4,
+"dicValue": "",
+"userId": 1,
+"sort": "",
+"remark": "新增岗位dicValue为空"
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">新增岗位必填项：
+{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"userId": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>新增岗位userId为空</t>
+  </si>
+  <si>
+    <t>{
+"dicId": 4,
+"dicValue": "新岗2",
+"sort": "",
+"remark": "新增岗位userId为空"
+}</t>
+  </si>
+  <si>
+    <t>请求的数据格式不符</t>
+  </si>
+  <si>
+    <t>新增岗位userId不存在</t>
+  </si>
+  <si>
+    <t>{
+"dicId": 4,
+"dicValue": "新岗3",
+"userId": 0,
+"sort": "",
+"remark": "新增岗位userId不存在"
+}</t>
+  </si>
+  <si>
+    <t>新增岗位sort、remark为空</t>
+  </si>
+  <si>
+    <t>{
+"dicId": 4,
+"dicValue": "新岗4",
+"userId": 1,
+"sort": "",
+"remark": "新增岗位sort、remark为空"
+}</t>
+  </si>
+  <si>
+    <t>新增岗位</t>
+  </si>
+  <si>
+    <t>{
+"dicId": 4,
+"dicValue": "新岗5",
+"userId": 1,
+"sort": "2",
+"remark": "新增岗位"
+}</t>
+  </si>
+  <si>
+    <t>新增重复岗位</t>
+  </si>
+  <si>
+    <t>{
+"dicId": 4,
+"dicValue": "新增岗位6",
+"userId": 1,
+"sort": "2",
+"remark": "新增重复岗位"
+}</t>
+  </si>
+  <si>
+    <t>岗位名称重复</t>
+  </si>
+  <si>
+    <t>编辑后dicValue为空</t>
+  </si>
+  <si>
+    <t>{
+"id": 10,
+"dicValue": "",
+"dicCode": "YWJL_2312",
+"remark": "编辑后dicValue为空",
+"parentId": 0,
+"source": 2,
+"userId": 1
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">编辑岗位必填项：
+{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id": 272,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"dicId": 4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"parentId": 0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"userId": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>编辑后userId为空</t>
+  </si>
+  <si>
+    <t>{
+"id": 11,
+"dicValue": "新岗8",
+"remark": "编辑后userId为空",
+"source": 2
+}</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">{
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"id": 272,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"dicId": 4,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"dicValue": "业务经理",
+"dicCode": "YWJL_272",
+"remark": "业务经理2222",
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"parentId": 0,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+"source": 2,
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>"userId": 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+}</t>
+    </r>
+  </si>
+  <si>
+    <t>role_010</t>
+  </si>
+  <si>
+    <t>编辑后dicValue、remark为空</t>
+  </si>
+  <si>
+    <t>{
+"id": 12,
+"dicId": 4,
+"dicValue": "新岗9",
+"parentId": 0,
+"userId": 1,
+"remark": ""
+}</t>
+  </si>
+  <si>
+    <t>role_011</t>
+  </si>
+  <si>
+    <t>删除岗位</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/dictionaryDetail/deleteDir</t>
+  </si>
+  <si>
+    <t>{
+"dicCode":13
+}</t>
   </si>
 </sst>
 </file>
@@ -169,18 +771,36 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -190,10 +810,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,9 +833,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,15 +854,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -244,17 +872,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -265,24 +893,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,16 +918,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -333,6 +946,19 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,175 +969,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -538,16 +1164,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -563,6 +1189,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,25 +1218,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -639,174 +1265,180 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1128,24 +1760,25 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="9.62121212121212" customWidth="1"/>
-    <col min="3" max="3" width="21.2727272727273" customWidth="1"/>
-    <col min="4" max="4" width="28.3636363636364" customWidth="1"/>
-    <col min="5" max="5" width="46.7272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="22.3636363636364" customWidth="1"/>
-    <col min="7" max="7" width="16.6363636363636" customWidth="1"/>
-    <col min="8" max="8" width="23.3636363636364" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.62121212121212" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.4545454545455" style="2" customWidth="1"/>
+    <col min="4" max="4" width="28.6363636363636" style="2" customWidth="1"/>
+    <col min="5" max="5" width="27.5454545454545" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.2727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.8181818181818" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:8">
@@ -1161,7 +1794,7 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="1" t="s">
@@ -1174,163 +1807,236 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="69" spans="1:8">
-      <c r="A2" t="s">
+    <row r="2" ht="62.4" spans="1:8">
+      <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="G2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="6" t="s">
+    </row>
+    <row r="3" ht="100.8" spans="1:8">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" ht="82.8" spans="1:8">
-      <c r="A3" t="s">
+      <c r="D3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="6"/>
-    </row>
-    <row r="4" ht="82.8" spans="1:7">
-      <c r="A4" t="s">
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="100.8" spans="1:8">
+      <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="86.4" spans="1:8">
+      <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" ht="82.8" spans="1:7">
-      <c r="A5" t="s">
+      <c r="D5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B5" t="s">
+      <c r="E5" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="G5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="86.4" spans="1:8">
+      <c r="A6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D6" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="6" ht="31.2" spans="3:7">
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="G6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="72" spans="1:8">
+      <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D7" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="7" ht="31.2" spans="3:7">
-      <c r="C7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" t="s">
+      <c r="E7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="G7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" ht="86.4" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" ht="100.8" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" ht="93.6" spans="4:6">
-      <c r="D8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" ht="93.6" spans="4:6">
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>38</v>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" ht="86.4" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" ht="140.4" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" ht="140.4" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" ht="46.8" spans="1:8">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" display="http://hami-test.tobowork.com:8026/stg/v1/system/org/updateOrg"/>
-    <hyperlink ref="E9" r:id="rId1" display="http://hami-test.tobowork.com:8026/stg/v1/system/org/updateOrg"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1340,14 +2046,531 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="15.6"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.62121212121212" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.3636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.7272727272727" style="3" customWidth="1"/>
+    <col min="5" max="5" width="39.0909090909091" style="4" customWidth="1"/>
+    <col min="6" max="6" width="32.2727272727273" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.4545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.3636363636364" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="46.8" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="78" spans="1:7">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="62.4" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="78" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="78" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="78" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="93.6" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="93.6" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="46.8" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.62121212121212" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15.3636363636364" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.8181818181818" style="3" customWidth="1"/>
+    <col min="5" max="5" width="45.8181818181818" style="4" customWidth="1"/>
+    <col min="6" max="6" width="36.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.4545454545455" style="2" customWidth="1"/>
+    <col min="8" max="8" width="23.3636363636364" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="46.8" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="109.2" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="93.6" spans="1:7">
+      <c r="A4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="109.2" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="109.2" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="109.2" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="109.2" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="140.4" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="156" spans="1:8">
+      <c r="A10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="124.8" spans="1:8">
+      <c r="A11" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="7"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="46.8" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,19 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="orgManage" sheetId="6" r:id="rId1"/>
     <sheet name="roleManage" sheetId="9" r:id="rId2"/>
     <sheet name="positionManage" sheetId="10" r:id="rId3"/>
+    <sheet name="orgUserManage" sheetId="11" r:id="rId4"/>
+    <sheet name="orderDetail" sheetId="12" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="202">
   <si>
     <t>NO.</t>
   </si>
@@ -48,7 +50,7 @@
     <t>/</t>
   </si>
   <si>
-    <t>查询全部机构--有机构数据</t>
+    <t>查询全部机构</t>
   </si>
   <si>
     <t>/stg/v1/system/org/pageOrg</t>
@@ -203,7 +205,8 @@
 "orgCode": "SXXB002",
 "orgName": "榆林分行",
 "parentOrgId":25,
-"type": 1
+"type": 1,
+"description":"添加一个父机构不存在的二级机构"
 }</t>
   </si>
   <si>
@@ -237,7 +240,7 @@
   </si>
   <si>
     <t>{
-"id": 11,
+"id": 10,
 "orgCode": "GSB002",
 "orgName": "",
 "parentOrgId":38,
@@ -257,11 +260,11 @@
   </si>
   <si>
     <t>{
-"orgId":13
-}</t>
-  </si>
-  <si>
-    <t>逻辑删除</t>
+"orgId":10
+}</t>
+  </si>
+  <si>
+    <t>删除（物理）</t>
   </si>
   <si>
     <t>role_001</t>
@@ -270,8 +273,7 @@
     <t>level1</t>
   </si>
   <si>
-    <t>查询全部角色
-（有角色数据）</t>
+    <t>查询全部角色</t>
   </si>
   <si>
     <t>/stg/v1/system/orgRole/pageOrgRole</t>
@@ -406,8 +408,7 @@
 }</t>
   </si>
   <si>
-    <t>查询全部岗位
-（有岗位数据）</t>
+    <t>查询全部岗位</t>
   </si>
   <si>
     <t>/stg/v1/system/user/findAllPosition</t>
@@ -765,16 +766,409 @@
 "dicCode":13
 }</t>
   </si>
+  <si>
+    <t>查询全部机构用户</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/user/findOrgUserList</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>添加机构用户account为空</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/user/addUser</t>
+  </si>
+  <si>
+    <t>{
+"account": "",
+"userName": "业务经理T01",
+"telephone": "15700000001",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>账号不能为空</t>
+  </si>
+  <si>
+    <t>未通过</t>
+  </si>
+  <si>
+    <t>添加机构用户userName为空</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMT02",
+"userName": "",
+"telephone": "15700000002",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>用户名不能为空</t>
+  </si>
+  <si>
+    <t>添加机构用户telephone为空</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMT03",
+"userName": "业务经理T03",
+"telephone": "",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>手机号不能为空</t>
+  </si>
+  <si>
+    <t>添加机构用户password为空</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMT04",
+"userName": "业务经理T04",
+"telephone": "15700000004",
+"password": "",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>密码不能为空</t>
+  </si>
+  <si>
+    <t>添加机构用户type为空</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMT05",
+"userName": "业务经理T05",
+"telephone": "15700000005",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>用户类型不能为空</t>
+  </si>
+  <si>
+    <t>添加机构用户机构ID为空</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMT06",
+"userName": "业务经理T06",
+"telephone": "15700000006",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>机构不能为空</t>
+  </si>
+  <si>
+    <t>添加机构用户岗位为空</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMT07",
+"userName": "业务经理T07",
+"telephone": "15700000007",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": [],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>岗位不能为空</t>
+  </si>
+  <si>
+    <t>添加机构用户角色为空</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMT08",
+"userName": "业务经理T08",
+"telephone": "15700000008",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": []
+}</t>
+  </si>
+  <si>
+    <t>角色不能为空</t>
+  </si>
+  <si>
+    <t>添加account已存在的机构用户</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMM01",
+"userName": "业务经理T09",
+"telephone": "15700000009",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>账号已存在</t>
+  </si>
+  <si>
+    <t>添加userName已存在的机构用户</t>
+  </si>
+  <si>
+    <t>{
+"account": "HMT10",
+"userName": "业务经理M02",
+"telephone": "15700000010",
+"password": "e10adc3949ba59abbe56e057f20f883e",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>用户名已存在</t>
+  </si>
+  <si>
+    <t>编辑后account为空</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/user/updateUser</t>
+  </si>
+  <si>
+    <t>{
+"id":10,
+"account": "",
+"userName": "业务经理T11",
+"telephone": "15700000011",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>org_013</t>
+  </si>
+  <si>
+    <t>编辑后account重复</t>
+  </si>
+  <si>
+    <t>{
+"id":10,
+"account": "HMM03",
+"userName": "业务经理T12",
+"telephone": "15700000012",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>org_014</t>
+  </si>
+  <si>
+    <t>编辑后userName为空</t>
+  </si>
+  <si>
+    <t>{
+"id":10,
+"account": "HMT13",
+"userName": "",
+"telephone": "15700000013",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>org_015</t>
+  </si>
+  <si>
+    <t>编辑后userName重复</t>
+  </si>
+  <si>
+    <t>{
+"id":10,
+"account": "HMT14",
+"userName": "业务经理M04",
+"telephone": "15700000014",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>org_016</t>
+  </si>
+  <si>
+    <t>编辑后telephone为空</t>
+  </si>
+  <si>
+    <t>{
+"id":10,
+"account": "HMT15",
+"userName": "业务经理T15",
+"telephone": "",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>org_017</t>
+  </si>
+  <si>
+    <t>编辑后type为空</t>
+  </si>
+  <si>
+    <t>{
+"id":10,
+"account": "HMT16",
+"userName": "业务经理T16",
+"telephone": "15700000016",
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>org_018</t>
+  </si>
+  <si>
+    <t>编辑后orgId为空</t>
+  </si>
+  <si>
+    <t>{
+"id":10,
+"account": "HMT17",
+"userName": "业务经理T17",
+"telephone": "15700000017",
+"type": 1,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>org_019</t>
+  </si>
+  <si>
+    <t>编辑后positionCodes为空</t>
+  </si>
+  <si>
+    <t>{
+"id":10,
+"account": "HMT18",
+"userName": "业务经理T18",
+"telephone": "15700000018",
+"type": 1,
+"orgId": 40,
+"positionCodes": [],
+"roleCodes": ["YWJL_140"]
+}</t>
+  </si>
+  <si>
+    <t>org_020</t>
+  </si>
+  <si>
+    <t>编辑后roleCodes为空</t>
+  </si>
+  <si>
+    <t>{
+"id":10,
+"account": "HMT19",
+"userName": "业务经理T19",
+"telephone": "15700000019",
+"type": 1,
+"orgId": 40,
+"positionCodes": ["YWJLG_285"],
+"roleCodes": []
+}</t>
+  </si>
+  <si>
+    <t>org_021</t>
+  </si>
+  <si>
+    <t>删除机构用户</t>
+  </si>
+  <si>
+    <t>/stg/v1/system/user/updateStatus</t>
+  </si>
+  <si>
+    <t>{
+"id": 10,
+"status": 0
+}</t>
+  </si>
+  <si>
+    <t>逻辑删除</t>
+  </si>
+  <si>
+    <t>查询订单详情（订单存在）</t>
+  </si>
+  <si>
+    <t>/stg/v1/bussiness/workflow/processHandle/getFormAndData</t>
+  </si>
+  <si>
+    <t>{
+"bpmnInstId": "10000003920283"
+}</t>
+  </si>
+  <si>
+    <t>查询订单详情（订单不存在）</t>
+  </si>
+  <si>
+    <t>{
+"bpmnInstId": "10000003920281"
+}</t>
+  </si>
+  <si>
+    <t>订单不存在</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -791,14 +1185,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF212121"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF212121"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -810,19 +1204,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -847,15 +1232,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -870,9 +1248,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -883,6 +1261,14 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -902,15 +1288,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -926,6 +1312,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -935,13 +1336,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -969,7 +1363,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -981,79 +1441,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,25 +1477,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1107,7 +1489,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1119,19 +1507,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,13 +1531,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1160,21 +1554,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1193,11 +1572,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1217,6 +1602,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1228,15 +1631,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1268,10 +1662,10 @@
     <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1280,137 +1674,137 @@
     <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1432,13 +1826,16 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1762,10 +2159,10 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -1775,7 +2172,7 @@
     <col min="3" max="3" width="15.4545454545455" style="2" customWidth="1"/>
     <col min="4" max="4" width="28.6363636363636" style="2" customWidth="1"/>
     <col min="5" max="5" width="27.5454545454545" style="4" customWidth="1"/>
-    <col min="6" max="6" width="37.8181818181818" style="2" customWidth="1"/>
+    <col min="6" max="6" width="40.6363636363636" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.2727272727273" style="2" customWidth="1"/>
     <col min="8" max="8" width="26.8181818181818" style="2" customWidth="1"/>
     <col min="9" max="16384" width="11" style="2"/>
@@ -1840,7 +2237,7 @@
       <c r="E3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>18</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -1858,7 +2255,7 @@
       <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -1876,7 +2273,7 @@
       <c r="E5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="10" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -1894,7 +2291,7 @@
       <c r="E6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>30</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -1912,7 +2309,7 @@
       <c r="E7" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="10" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -1930,7 +2327,7 @@
       <c r="E8" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="10" t="s">
         <v>38</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1951,7 +2348,7 @@
       <c r="E9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="10" t="s">
         <v>42</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -1959,7 +2356,7 @@
       </c>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" ht="86.4" spans="1:7">
+    <row r="10" ht="100.8" spans="1:7">
       <c r="A10" s="2" t="s">
         <v>43</v>
       </c>
@@ -1975,7 +2372,7 @@
       <c r="E10" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="10" t="s">
         <v>47</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -2049,9 +2446,9 @@
   <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2109,7 +2506,7 @@
       <c r="E2" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2130,10 +2527,10 @@
       <c r="D3" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>70</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -2150,10 +2547,10 @@
       <c r="D4" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>74</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2170,10 +2567,10 @@
       <c r="D5" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>78</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2190,10 +2587,10 @@
       <c r="D6" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>81</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2210,10 +2607,10 @@
       <c r="D7" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>84</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2230,10 +2627,10 @@
       <c r="D8" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>89</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2250,10 +2647,10 @@
       <c r="D9" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>92</v>
       </c>
       <c r="G9" s="2" t="s">
@@ -2270,7 +2667,7 @@
       <c r="D10" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>95</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -2291,10 +2688,10 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2352,7 +2749,7 @@
       <c r="E2" s="3" t="s">
         <v>98</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="F2" s="8" t="s">
         <v>99</v>
       </c>
       <c r="G2" s="2" t="s">
@@ -2370,16 +2767,16 @@
       <c r="D3" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="8" t="s">
         <v>102</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="8" t="s">
         <v>103</v>
       </c>
     </row>
@@ -2393,10 +2790,10 @@
       <c r="D4" s="3" t="s">
         <v>104</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="8" t="s">
         <v>105</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -2413,10 +2810,10 @@
       <c r="D5" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="F5" s="8" t="s">
         <v>108</v>
       </c>
       <c r="G5" s="2" t="s">
@@ -2433,10 +2830,10 @@
       <c r="D6" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="8" t="s">
         <v>110</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -2453,10 +2850,10 @@
       <c r="D7" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>112</v>
       </c>
       <c r="G7" s="2" t="s">
@@ -2473,10 +2870,10 @@
       <c r="D8" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="F8" s="8" t="s">
         <v>114</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -2493,16 +2890,16 @@
       <c r="D9" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="F9" s="8" t="s">
         <v>117</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="8" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2516,16 +2913,16 @@
       <c r="D10" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="8" t="s">
+      <c r="E10" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="F10" s="8" t="s">
         <v>120</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="8" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2539,16 +2936,16 @@
       <c r="D11" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="8" t="s">
         <v>124</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H11" s="7"/>
+      <c r="H11" s="8"/>
     </row>
     <row r="12" s="2" customFormat="1" ht="46.8" spans="1:7">
       <c r="A12" s="2" t="s">
@@ -2560,7 +2957,7 @@
       <c r="D12" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="8" t="s">
+      <c r="E12" s="9" t="s">
         <v>127</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -2568,6 +2965,553 @@
       </c>
       <c r="G12" s="2" t="s">
         <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.90909090909091" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.63636363636364" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.3636363636364" style="3" customWidth="1"/>
+    <col min="5" max="5" width="28.3636363636364" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.2727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.8181818181818" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="31.2" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="158.4" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="158.4" spans="1:8">
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="158.4" spans="1:8">
+      <c r="A5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="144" spans="1:8">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="144" spans="1:8">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="144" spans="1:8">
+      <c r="A8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="158.4" spans="1:8">
+      <c r="A9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="158.4" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="158.4" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="158.4" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="144" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="144" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" s="2" customFormat="1" ht="144" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" s="2" customFormat="1" ht="144" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" s="2" customFormat="1" ht="144" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" s="2" customFormat="1" ht="129.6" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19" s="2" customFormat="1" ht="129.6" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" s="2" customFormat="1" ht="144" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" s="2" customFormat="1" ht="144" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="22" s="2" customFormat="1" ht="62.4" spans="1:8">
+      <c r="A22" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="7.90909090909091" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.63636363636364" style="2" customWidth="1"/>
+    <col min="3" max="3" width="12.5454545454545" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.3636363636364" style="3" customWidth="1"/>
+    <col min="5" max="5" width="35.1818181818182" style="4" customWidth="1"/>
+    <col min="6" max="6" width="37.8181818181818" style="2" customWidth="1"/>
+    <col min="7" max="7" width="19.2727272727273" style="2" customWidth="1"/>
+    <col min="8" max="8" width="26.8181818181818" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="11" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" ht="46.8" spans="1:8">
+      <c r="A2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="46.8" spans="1:8">
+      <c r="A3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/testData/testData.xlsx
+++ b/testData/testData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="28800" windowHeight="12660" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="orgManage" sheetId="6" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="203">
   <si>
     <t>NO.</t>
   </si>
@@ -773,6 +773,9 @@
     <t>/stg/v1/system/user/findOrgUserList</t>
   </si>
   <si>
+    <t>"total":18</t>
+  </si>
+  <si>
     <t>通过</t>
   </si>
   <si>
@@ -1165,9 +1168,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
@@ -1198,6 +1201,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -1205,14 +1222,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1226,6 +1243,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -1233,10 +1265,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1265,17 +1297,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1284,14 +1309,6 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1305,14 +1322,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1321,21 +1339,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1363,13 +1366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1393,7 +1396,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1405,13 +1408,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1423,31 +1420,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1465,13 +1438,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1483,7 +1486,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1501,31 +1522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1537,13 +1534,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1554,6 +1557,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1568,6 +1580,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1587,35 +1623,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1634,173 +1657,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2159,10 +2162,10 @@
   <sheetPr/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -2978,8 +2981,8 @@
   <sheetPr/>
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" outlineLevelCol="7"/>
@@ -3038,10 +3041,10 @@
         <v>12</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>131</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="158.4" spans="1:8">
@@ -3049,19 +3052,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" s="2" customFormat="1" ht="158.4" spans="1:8">
@@ -3069,19 +3072,19 @@
         <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="5" s="2" customFormat="1" ht="158.4" spans="1:8">
@@ -3089,19 +3092,19 @@
         <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" ht="144" spans="1:8">
@@ -3109,19 +3112,19 @@
         <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" s="2" customFormat="1" ht="144" spans="1:8">
@@ -3129,19 +3132,19 @@
         <v>32</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" s="2" customFormat="1" ht="144" spans="1:8">
@@ -3149,19 +3152,19 @@
         <v>36</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" s="2" customFormat="1" ht="158.4" spans="1:8">
@@ -3172,16 +3175,16 @@
         <v>40</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H9" s="3"/>
     </row>
@@ -3196,16 +3199,16 @@
         <v>45</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="11" s="2" customFormat="1" ht="158.4" spans="1:7">
@@ -3213,16 +3216,16 @@
         <v>48</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" s="2" customFormat="1" ht="158.4" spans="1:7">
@@ -3230,16 +3233,16 @@
         <v>53</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" s="2" customFormat="1" ht="144" spans="1:7">
@@ -3247,81 +3250,81 @@
         <v>56</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" s="2" customFormat="1" ht="144" spans="1:7">
       <c r="A14" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="15" s="2" customFormat="1" ht="144" spans="1:7">
       <c r="A15" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16" s="2" customFormat="1" ht="144" spans="1:7">
       <c r="A16" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" s="2" customFormat="1" ht="144" spans="1:7">
       <c r="A17" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>31</v>
@@ -3329,90 +3332,90 @@
     </row>
     <row r="18" s="2" customFormat="1" ht="129.6" spans="1:7">
       <c r="A18" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" s="2" customFormat="1" ht="129.6" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" s="2" customFormat="1" ht="144" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" s="2" customFormat="1" ht="144" spans="1:7">
       <c r="A21" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22" s="2" customFormat="1" ht="62.4" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -3479,19 +3482,19 @@
         <v>9</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>31</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" s="2" customFormat="1" ht="46.8" spans="1:8">
@@ -3499,19 +3502,19 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>
